--- a/dicionarioDados.xlsx
+++ b/dicionarioDados.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="70">
   <si>
     <t>Pessoa</t>
   </si>
@@ -59,7 +59,10 @@
     <t>Tipo sanguíneo</t>
   </si>
   <si>
-    <t>Entidade física</t>
+    <t>Entidade</t>
+  </si>
+  <si>
+    <t>Entidade genérica para definir uma pessoa física no sistema</t>
   </si>
   <si>
     <t>CPF</t>
@@ -74,16 +77,25 @@
     <t>A especialização do médico</t>
   </si>
   <si>
+    <t>Entidade especializada</t>
+  </si>
+  <si>
+    <t>Pessoa que receberá atendimento médico</t>
+  </si>
+  <si>
     <t>RG</t>
   </si>
   <si>
+    <t>Pessoa que atenderá pacientes</t>
+  </si>
+  <si>
     <t>Telefone</t>
   </si>
   <si>
     <t>Hospital</t>
   </si>
   <si>
-    <t>Local onde está sendo reallizado o</t>
+    <t>Local onde serão realizadas as atividades médicas</t>
   </si>
   <si>
     <t>dt_nasc</t>
@@ -95,30 +107,42 @@
     <t>Prontuário</t>
   </si>
   <si>
-    <t>Entidade</t>
+    <t>Coleção de registros de atendimento</t>
   </si>
   <si>
     <t>Tratamento</t>
   </si>
   <si>
+    <t>Relação</t>
+  </si>
+  <si>
+    <t>Os procedimentos realizados para tratar determinado problema  do paciente</t>
+  </si>
+  <si>
     <t>Consulta</t>
   </si>
   <si>
+    <t>Interação entre médico e paciente</t>
+  </si>
+  <si>
     <t>Agendamento</t>
   </si>
   <si>
+    <t>Ato de marcar uma consulta com um médico</t>
+  </si>
+  <si>
     <t>Histórico</t>
   </si>
   <si>
-    <t>Descrição de todos os dados do paciente</t>
-  </si>
-  <si>
     <t>No histórico ficam armazenadas informações do paciente.</t>
   </si>
   <si>
     <t>PlanoSaude</t>
   </si>
   <si>
+    <t>Pacote de procedimentos cobertos por uma empresa</t>
+  </si>
+  <si>
     <t>Procedimento</t>
   </si>
   <si>
@@ -131,9 +155,18 @@
     <t>Exame</t>
   </si>
   <si>
+    <t>Procedimento adotado a fim de diagnosticar problemas</t>
+  </si>
+  <si>
+    <t>Substância ou preparado usado no tratamento de uma afecção.</t>
+  </si>
+  <si>
     <t>Diagnostico</t>
   </si>
   <si>
+    <t>Conclusão tomada a partir de procedimentos</t>
+  </si>
+  <si>
     <t>nome</t>
   </si>
   <si>
@@ -146,7 +179,7 @@
     <t>float</t>
   </si>
   <si>
-    <t>Método utilizados para tratamento</t>
+    <t>Método utilizado para tratamento (exames, internação, cirurgias)</t>
   </si>
   <si>
     <t>tarja</t>
@@ -158,6 +191,9 @@
     <t>Cirurgia</t>
   </si>
   <si>
+    <t>Especialidade que se dedica ao tratamento de doenças e traumatismos por meio de processos operatórios manuais e instrumentais.</t>
+  </si>
+  <si>
     <t>descrição</t>
   </si>
   <si>
@@ -170,10 +206,25 @@
     <t>Internacao</t>
   </si>
   <si>
+    <t>Ato de manter o paciente em observação</t>
+  </si>
+  <si>
+    <t>Convênio</t>
+  </si>
+  <si>
+    <t>Contrato entre hospital e plano de saúde</t>
+  </si>
+  <si>
     <t>Registro</t>
   </si>
   <si>
-    <t>Display</t>
+    <t>data</t>
+  </si>
+  <si>
+    <t>horario</t>
+  </si>
+  <si>
+    <t>comentario</t>
   </si>
 </sst>
 </file>
@@ -254,7 +305,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -265,6 +316,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -284,10 +339,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:R22"/>
+  <dimension ref="B1:R29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R19" activeCellId="0" sqref="R19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -392,20 +447,23 @@
       <c r="C5" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="D5" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="H5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -413,10 +471,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
@@ -427,10 +488,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>10</v>
@@ -438,78 +502,111 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>26</v>
+        <v>14</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>28</v>
+        <v>34</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>29</v>
+        <v>36</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>33</v>
+        <v>40</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>41</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="L14" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="P14" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>37</v>
+        <v>45</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>46</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>3</v>
@@ -539,78 +636,99 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>35</v>
+        <v>43</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>38</v>
+        <v>48</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>49</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="I17" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="M17" s="0" t="s">
         <v>10</v>
       </c>
       <c r="P17" s="0" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="Q17" s="0" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>43</v>
+        <v>32</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>54</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I18" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="M18" s="0" t="s">
         <v>10</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="Q18" s="0" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>46</v>
+        <v>57</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="I19" s="0" t="s">
         <v>10</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="M19" s="0" t="s">
         <v>10</v>
       </c>
       <c r="P19" s="0" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="Q19" s="0" t="s">
         <v>10</v>
@@ -618,27 +736,77 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>50</v>
+        <v>62</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
-        <v>52</v>
+        <v>64</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H25" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H27" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H28" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H29" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="H14:J14"/>
     <mergeCell ref="L14:N14"/>
     <mergeCell ref="P14:R14"/>
+    <mergeCell ref="H24:J24"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
